--- a/config_debug/fish_3d_yutu_random_1.xlsx
+++ b/config_debug/fish_3d_yutu_random_1.xlsx
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42,43,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,7 +309,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,</t>
+    <t>28,29,30,31,32,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,42,43,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -1153,7 +1153,7 @@
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1173,7 +1173,7 @@
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -1193,7 +1193,7 @@
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -1697,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1714,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>

--- a/config_debug/fish_3d_yutu_random_1.xlsx
+++ b/config_debug/fish_3d_yutu_random_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1020,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>41</v>
@@ -1053,7 +1049,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>180</v>
@@ -1073,7 +1069,7 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -1093,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,13 +1097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1121,13 +1117,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1141,13 +1137,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -1164,36 +1160,16 @@
         <v>70</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1663,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1680,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -1697,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1714,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>

--- a/config_debug/fish_3d_yutu_random_1.xlsx
+++ b/config_debug/fish_3d_yutu_random_1.xlsx
@@ -305,7 +305,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,37,</t>
+    <t>34,37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,10 +1056,10 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>

--- a/config_debug/fish_3d_yutu_random_1.xlsx
+++ b/config_debug/fish_3d_yutu_random_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,7 +305,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,37</t>
+    <t>34,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,10 +1060,10 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -1073,19 +1077,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1093,19 +1097,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,19 +1117,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,18 +1137,38 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>30</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
     </row>
